--- a/tableau_synthese_2023.xlsx
+++ b/tableau_synthese_2023.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -236,19 +236,13 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -569,7 +563,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -626,6 +620,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,10 +632,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -658,23 +652,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +828,6 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
@@ -897,30 +886,33 @@
       <c r="H6" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" s="16" customFormat="true" ht="324.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="324.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" s="16" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="14" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="17" t="s">
         <v>24</v>
       </c>
@@ -932,23 +924,25 @@
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
     </row>
-    <row r="9" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
@@ -958,11 +952,11 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
         <v>28</v>
       </c>
@@ -970,27 +964,27 @@
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="22" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="20"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -998,9 +992,9 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -1008,9 +1002,9 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -1018,9 +1012,9 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
@@ -1028,21 +1022,21 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -1050,9 +1044,9 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" s="16" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1060,9 +1054,9 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -1070,9 +1064,9 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -1080,9 +1074,9 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -1090,49 +1084,49 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="19"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="s">
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="22" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -1140,9 +1134,9 @@
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" s="16" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" s="14" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -1150,9 +1144,9 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1160,9 +1154,9 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
@@ -1170,29 +1164,29 @@
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
-    </row>
-    <row r="31" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1202,7 +1196,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1212,7 +1206,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" s="16" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1222,7 +1216,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1231,6 +1225,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/tableau_synthese_2023.xlsx
+++ b/tableau_synthese_2023.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">NOM et prénom : KHADDIOUI Ouassim</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
+    <t xml:space="preserve">N° candidat : 02244130783</t>
   </si>
   <si>
     <t xml:space="preserve">Centre de formation : NEXTECH</t>
@@ -122,16 +122,22 @@
     <t xml:space="preserve">Projet Fast Sushi</t>
   </si>
   <si>
+    <t xml:space="preserve">01/11/22 au 01/06/23</t>
+  </si>
+  <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
     <t xml:space="preserve">Portfolio</t>
   </si>
   <si>
+    <t xml:space="preserve">01/12/22 au 17/04/23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Site Streaming</t>
   </si>
   <si>
-    <t xml:space="preserve">SEO</t>
+    <t xml:space="preserve">01/02/2022 au 01/04/2022</t>
   </si>
   <si>
     <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
@@ -143,16 +149,23 @@
     <t xml:space="preserve">Gestion des sauvegardes d’application</t>
   </si>
   <si>
+    <t xml:space="preserve">15/05/2022 au 15/06/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gestion des demandes d’assistance et d’évolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/09/2023 au 11/10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -226,16 +239,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -563,7 +576,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -656,7 +669,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -668,6 +681,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,11 +693,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -692,7 +709,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -776,14 +793,14 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="9" style="0" width="11.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="44" style="1" width="10.85"/>
@@ -928,105 +945,109 @@
       <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H9" s="23"/>
     </row>
     <row r="10" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="G11" s="21"/>
       <c r="H11" s="23"/>
     </row>
     <row r="12" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="s">
-        <v>29</v>
-      </c>
+      <c r="A12" s="18"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="23"/>
     </row>
     <row r="13" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
       <c r="H13" s="23"/>
     </row>
     <row r="14" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="23"/>
     </row>
     <row r="15" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
       <c r="H15" s="23"/>
     </row>
     <row r="16" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="23"/>
     </row>
     <row r="17" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -1039,56 +1060,56 @@
     <row r="18" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="23"/>
     </row>
     <row r="19" s="14" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="23"/>
     </row>
     <row r="23" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -1100,91 +1121,95 @@
     </row>
     <row r="24" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="C24" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="23"/>
     </row>
     <row r="25" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
+        <v>36</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="21"/>
       <c r="D25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="23"/>
     </row>
     <row r="26" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
       <c r="H26" s="23"/>
     </row>
     <row r="27" s="14" customFormat="true" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
       <c r="H27" s="23"/>
     </row>
     <row r="28" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
       <c r="H28" s="23"/>
     </row>
     <row r="29" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
     <row r="32" s="14" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1"/>
